--- a/DBzip/book1.xlsx
+++ b/DBzip/book1.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a10910/Documents/,2025花東音樂營/,course selection system/HTCCCS/DBzip/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F45E453-28CC-FB44-8F9A-44A768AD78BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A23D3B-1D85-6342-9925-28A8C02AAE57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17100" yWindow="780" windowWidth="17100" windowHeight="19800" xr2:uid="{707F4D4B-931B-714B-BB09-B0A6309AD859}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="19820" xr2:uid="{707F4D4B-931B-714B-BB09-B0A6309AD859}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="J1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -610,8 +610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{692C65FE-9E21-344E-A842-B67933967FE8}">
   <dimension ref="A1:AF73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X12" workbookViewId="0">
-      <selection activeCell="AF49" sqref="AF49"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
